--- a/metadata/EPI/EPI_DASHBOARD_V0_DHIS2.34/reference.xlsx
+++ b/metadata/EPI/EPI_DASHBOARD_V0_DHIS2.34/reference.xlsx
@@ -423,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +461,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V0.9.1</v>
+        <v>0.9.2</v>
       </c>
     </row>
     <row r="5">
@@ -469,23 +469,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>2.34.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-06-11T12:11</v>
+        <v>aff07fb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>EPI_DASHBOARD_V0.9.1_DHIS2.34_2020-06-11T12:11</v>
+        <v>20210623T060743</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>EPI_DASHBOARD_V0.9.2_2.34.4-en</v>
       </c>
     </row>
   </sheetData>
@@ -517,10 +525,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Immunisation access</v>
+        <v>Immunization access</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-06-11</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>JVenB84tY1X</v>
@@ -528,10 +536,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Immunisation admin</v>
+        <v>Immunization admin</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-04-24</v>
+        <v>2021-06-11</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>T6DZORCrELb</v>
@@ -608,35 +616,35 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Immunization</v>
+        <v>Immunization stock</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-01-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Immunization - coverages</v>
+        <v>Immunization</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Us7U5nyds0r</v>
+        <v>jWbf0RIUhji</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Immunization - drop-out rates</v>
+        <v>Immunization - coverages</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
@@ -645,21 +653,21 @@
         <v>2019-06-29</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>W7E4YoQngAv</v>
+        <v>Us7U5nyds0r</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Immunization - stock</v>
+        <v>Immunization - drop-out rates</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-01-14</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>IratxVbStzY</v>
+        <v>W7E4YoQngAv</v>
       </c>
     </row>
     <row r="6">
@@ -682,17 +690,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="107.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -733,95 +741,95 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>sgK3IgnVRCS</v>
+        <v>A9RKohJxyvk</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] EPI - AEFI suspected - non-serious</v>
+        <v>[CONFIG] EPI - Vaccination cards stock discrepancy rate (%)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEFI suspected - non-serious</v>
+        <v>Vaccination cards discrepancy rate (%)</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>EPI_AEFI_SUSP_NONSER</v>
+        <v>EPI_VACCARDS_DRATE</v>
       </c>
       <c r="E2" s="4" t="str">
         <v/>
       </c>
       <c r="F2" s="4" t="str">
-        <v>AEFI suspected - non-serious</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>1</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>IxeSYS0sHCa</v>
+        <v>aaxCMHHLcry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] EPI - AEFI suspected - serious</v>
+        <v>[CONFIG] EPI - IPV stock discrepancy rate (%)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>AEFI serious</v>
+        <v>IPV discrepancy rate (%)</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>EPI_AEFI_SUSP_SER</v>
+        <v>EPI_IPV_DRATE</v>
       </c>
       <c r="E3" s="5" t="str">
         <v/>
       </c>
       <c r="F3" s="5" t="str">
-        <v>AEFI suspected - serious</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>1</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H3" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J3" s="5" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Qw9Iiqs0KQU</v>
+        <v>aGVW4AeTjUQ</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] EPI - BCG closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - Yellow fever open vial wastage rate (%)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>BCG CV wastage (%)</v>
+        <v>YF OV wastage (%)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>EPI_BCG_CV_WASTE</v>
+        <v>EPI_YF_OV_WASTE</v>
       </c>
       <c r="E4" s="4" t="str">
         <v/>
       </c>
       <c r="F4" s="4" t="str">
-        <v>BCG doses wasted (closed vial)</v>
+        <v>Yellow fever doses used - administered</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>BCG doses used</v>
+        <v>Yellow fever doses used</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
@@ -829,54 +837,54 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>S7vxLF7zYb3</v>
+        <v>AN4vU1L9QGt</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] EPI - BCG coverage (%)</v>
+        <v>[CONFIG] EPI - OPV stock coverage time</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>BCG coverage (%)</v>
+        <v>OPV stock coverage time</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>EPI_BCG_COV</v>
+        <v>EPI_OPV_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E5" s="5" t="str">
         <v/>
       </c>
       <c r="F5" s="5" t="str">
-        <v>BCG doses given &lt; 1 year</v>
+        <v>usable stock</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Live births</v>
+        <v>consumed stock</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J5" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>FghPB8EogPR</v>
+        <v>aOvAmvdo4b8</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] EPI - BCG doses given</v>
+        <v>[CONFIG] EPI - Rota stockout days</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>BCG given</v>
+        <v>Rota stockout days</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>EPI_BCG_GIVEN</v>
+        <v>EPI_ROTA_OSDAYS</v>
       </c>
       <c r="E6" s="4" t="str">
         <v/>
       </c>
       <c r="F6" s="4" t="str">
-        <v>BCG doses given</v>
+        <v>Rota stockout days</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>1</v>
@@ -885,39 +893,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J6" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>bxFxspWCMt5</v>
+        <v>b4v3ZlijUkE</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] EPI - BCG open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - IPV open vial wastage rate (%)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>BCG OV wastage (%)</v>
+        <v>IPV OV wastage rate (%)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>EPI_BCG_OV_WASTE</v>
+        <v>EPI_IPV OV_WASTE</v>
       </c>
       <c r="E7" s="5" t="str">
         <v/>
       </c>
       <c r="F7" s="5" t="str">
-        <v>BCG doses used - administered</v>
+        <v>IPV doses used - administered</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>BCG doses used</v>
+        <v>IPV doses used</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
@@ -925,25 +933,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>E35XSxwQAFO</v>
+        <v>bbKPLVqQUt0</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] EPI - BCG to MR 1 dropout rate (%)</v>
+        <v>[CONFIG] EPI - Reporting completeness (%)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>BCG-MR 1 dropout (%)</v>
+        <v>EPI reporting completeness (%)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>EPI_BCG_MR1_DROPOUT</v>
+        <v>EPI_REP_COMP_PERC</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>The percentage of children who received BCG (&lt; 1 year) vaccine but who do not get MR1 vaccine (&lt; 1 year).</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <v>BCG - MR1 doses administered &lt; 1 year</v>
+        <v>Immunisation reports received</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>BCG doses administered &lt; 1 year</v>
+        <v>Immunisation reports expected</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>Percentage</v>
@@ -952,103 +960,103 @@
         <v>2019-06-29</v>
       </c>
       <c r="J8" s="4" t="str">
-        <v>jWbf0RIUhji, W7E4YoQngAv</v>
+        <v>jWbf0RIUhji</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Vkr6WbAIudI</v>
+        <v>bmddS3T3OQt</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] EPI - Cold chain high temperature alarms</v>
+        <v>[CONFIG] EPI - BCG stock coverage time</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>High temperature alarms</v>
+        <v>BCG stock coverage time</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>EPI_ALRMTEMP_HIGH</v>
+        <v>EPI_BCG_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E9" s="5" t="str">
         <v/>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Cold chain high temperature alarms</v>
+        <v>usable stock</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>1</v>
+        <v>consumed stock</v>
       </c>
       <c r="H9" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J9" s="5" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>zpvCdtk2srW</v>
+        <v>btEs5IrKxJ0</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] EPI - Cold chain low temperature alarms</v>
+        <v>[CONFIG] EPI - RV closed vial wastage rate (%)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Low temperature alarms</v>
+        <v>RV CV wastage (%)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>EPI_ALRMTEMP_LOW</v>
+        <v>EPI_RV_CV_WASTE</v>
       </c>
       <c r="E10" s="4" t="str">
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Cold chain low temperature alarms</v>
+        <v>RV doses wasted (close vial)</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>1</v>
+        <v>RV doses used</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J10" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>wRvkMjx6jzu</v>
+        <v>bxFxspWCMt5</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] EPI - Cold chain refrigerator functional</v>
+        <v>[CONFIG] EPI - BCG open vial wastage rate (%)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Cold chain refrigerator functional</v>
+        <v>BCG OV wastage (%)</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>EPI_CC_REFR_OK</v>
+        <v>EPI_BCG_OV_WASTE</v>
       </c>
       <c r="E11" s="5" t="str">
         <v/>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Cold chain refrigerator functional</v>
+        <v>BCG doses used - BCG doses administered</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>1</v>
+        <v>BCG doses used</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J11" s="5" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
       </c>
     </row>
     <row r="12">
@@ -1085,86 +1093,86 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>qLpl4igiQWk</v>
+        <v>cF32XOLnXpZ</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-Hib 1 coverage (%)</v>
+        <v>[CONFIG] EPI - Rota stock used</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>DPT1 coverage (%)</v>
+        <v>Rota used</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>EPI_DPT1_COV</v>
+        <v>EPI_ROTA_USED</v>
       </c>
       <c r="E13" s="5" t="str">
         <v/>
       </c>
       <c r="F13" s="5" t="str">
-        <v>DPT-HepB-Hib 1 doses given &lt; 1 year</v>
+        <v>Rota doses used</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>1</v>
       </c>
       <c r="H13" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J13" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>y84dl2tMvyn</v>
+        <v>d0Ru4e7jQFC</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-HIB 1 doses given</v>
+        <v>[CONFIG] EPI - TT stock discrepancy rate (%)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>DPT-HepB-HIB 1 given</v>
+        <v>TT discrepancy rate (%)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>EPI_DPT_HEPB_HIB1_GIVEN</v>
+        <v>EPI_TT_DRATE</v>
       </c>
       <c r="E14" s="4" t="str">
         <v/>
       </c>
       <c r="F14" s="4" t="str">
-        <v>DPT-HepB-HIB 1 doses given</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>1</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J14" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>lkpoPvRswsF</v>
+        <v>DDYEQCyJE4k</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-Hib 3 coverage (%)</v>
+        <v>[CONFIG] EPI - IPV coverage (%)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>DPT3 coverage (%)</v>
+        <v>IPV coverage (%)</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>EPI_DPT3_COV</v>
+        <v>EPI_IPV_COV</v>
       </c>
       <c r="E15" s="5" t="str">
         <v/>
       </c>
       <c r="F15" s="5" t="str">
-        <v>DPT-HepB-Hib 3 doses given &lt; 1 year</v>
+        <v>IPV doses given &lt; 1 year</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>Population &lt; 1 year</v>
@@ -1181,89 +1189,89 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>mwph5D00oxH</v>
+        <v>dehhFpo33Dx</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-HIB 3 doses given</v>
+        <v>[CONFIG] EPI - Sdilution 5ml stock discrepancy rate (%)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>DPT-HepB-HIB 3 given</v>
+        <v>Sdilution 5ml discrepancy rate (%)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>EPI_DPT_HEB_HIB3_GIVEN</v>
+        <v>EPI_SDILUTION_5ML_DRATE</v>
       </c>
       <c r="E16" s="4" t="str">
         <v/>
       </c>
       <c r="F16" s="4" t="str">
-        <v>DPT-HepB-HIB 3 doses given</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>1</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J16" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>V3yTzoxrfVg</v>
+        <v>DthsT66LXal</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-Hib closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - IPV stock closing balance</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>DPT-HepB-Hib CV wastage (%)</v>
+        <v>IPV closing balance</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>EPI_DPT_HEPB_HIB_CV_WASTE</v>
+        <v>EPI_IPV_CBAL</v>
       </c>
       <c r="E17" s="5" t="str">
         <v/>
       </c>
       <c r="F17" s="5" t="str">
-        <v>DPT doses wasted (closed vial)</v>
+        <v>IPV doses closing balance</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>DPT-HepB-Hib doses used</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J17" s="5" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>UjQPNW1DZOA</v>
+        <v>E35XSxwQAFO</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] EPI - DPT-HepB-Hib open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - BCG to MR 1 dropout rate (%)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>DPT-HepB-Hib OV wastage (%)</v>
+        <v>BCG-MR 1 dropout (%)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>EPI_DPT_HEPB_HIB_OV_WASTE</v>
+        <v>EPI_BCG_MR1_DROPOUT</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v/>
+        <v>The percentage of children who received BCG (&lt; 1 year) vaccine but who do not get MR1 vaccine (&lt; 1 year).</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>DPT-HepB-Hib doses used - adminstered</v>
+        <v>BCG - MR1 doses administered &lt; 1 year</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>DPT-HepB-HIB doses used</v>
+        <v>BCG doses administered &lt; 1 year</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>Percentage</v>
@@ -1272,36 +1280,36 @@
         <v>2019-06-29</v>
       </c>
       <c r="J18" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>jWbf0RIUhji, W7E4YoQngAv</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>WSI3lSrIbrh</v>
+        <v>e6PGK5aJ7Dn</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] EPI - IPV closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - OPV closed vial wastage rate (%)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>IPV CV wastage rate (%)</v>
+        <v>OPV CV wastage rate (%)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>EPI_IPV CV_WASTE</v>
+        <v>EPI_OPV_CV_WASTE</v>
       </c>
       <c r="E19" s="5" t="str">
         <v/>
       </c>
       <c r="F19" s="5" t="str">
-        <v>IPV doses wasted (closed vial)</v>
+        <v>OPV doses wasted (closed vial)</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>IPV doses used</v>
+        <v>OPV doses used</v>
       </c>
       <c r="H19" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
@@ -1309,214 +1317,214 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>DDYEQCyJE4k</v>
+        <v>f6fpDrm9wNs</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>[CONFIG] EPI - IPV coverage (%)</v>
+        <v>[CONFIG] EPI - Yellow fever stock discrepancy rate (%)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>IPV coverage (%)</v>
+        <v>Yellow fever discrepancy rate (%)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>EPI_IPV_COV</v>
+        <v>EPI_YF_DRATE</v>
       </c>
       <c r="E20" s="4" t="str">
         <v/>
       </c>
       <c r="F20" s="4" t="str">
-        <v>IPV doses given &lt; 1 year</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>b4v3ZlijUkE</v>
+        <v>fFrUdr3usTw</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] EPI - IPV open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - MR stockout days</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>IPV OV wastage rate (%)</v>
+        <v>MR stockout days</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>EPI_IPV OV_WASTE</v>
+        <v>EPI_MR_OSDAYS</v>
       </c>
       <c r="E21" s="5" t="str">
         <v/>
       </c>
       <c r="F21" s="5" t="str">
-        <v>IPV doses used - administered</v>
+        <v>MR stockout days</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>IPV doses used</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J21" s="5" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>QxShpQdLuAt</v>
+        <v>FghPB8EogPR</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] EPI - MR 1 coverage (%)</v>
+        <v>[CONFIG] EPI - BCG doses given</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>MR 1 coverage (%)</v>
+        <v>BCG given</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>EPI_MR_1_COV</v>
+        <v>EPI_BCG_GIVEN</v>
       </c>
       <c r="E22" s="4" t="str">
         <v/>
       </c>
       <c r="F22" s="4" t="str">
-        <v>MR 1 doses given (&lt; 1 year)</v>
+        <v>BCG doses given</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
         <v>2019-06-29</v>
       </c>
       <c r="J22" s="4" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>jWbf0RIUhji</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>l5NxXNKkcpD</v>
+        <v>FhQ8Hd5rCHj</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] EPI - MR 1 doses given</v>
+        <v>[CONFIG] EPI - MR 1 to 2 dropout rate (%)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>MR 1 given</v>
+        <v>MR 1-2 drop out rate (%)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>EPI_MR_1_GIVEN</v>
+        <v>EPI_MR_1_2_DROPOUT</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v/>
+        <v>All ages</v>
       </c>
       <c r="F23" s="5" t="str">
+        <v>MR 1 doses given - MR 2 doses given</v>
+      </c>
+      <c r="G23" s="5" t="str">
         <v>MR 1 doses given</v>
       </c>
-      <c r="G23" s="5" t="str">
-        <v>1</v>
-      </c>
       <c r="H23" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I23" s="5" t="str">
         <v>2019-06-29</v>
       </c>
       <c r="J23" s="5" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>jWbf0RIUhji, W7E4YoQngAv</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>FhQ8Hd5rCHj</v>
+        <v>Fl6a6f7roxR</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] EPI - MR 1 to 2 dropout rate (%)</v>
+        <v>[CONFIG] EPI - BCG stock used</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>MR 1-2 drop out rate (%)</v>
+        <v>BCG used</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>EPI_MR_1_2_DROPOUT</v>
+        <v>EPI_BCG_USED</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>All ages</v>
+        <v/>
       </c>
       <c r="F24" s="4" t="str">
-        <v>MR 1 doses given - MR 2 doses given</v>
+        <v>BCG doses used</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>MR 1 doses given</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J24" s="4" t="str">
-        <v>jWbf0RIUhji, W7E4YoQngAv</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>qtFNNLWxIHI</v>
+        <v>FLTgU4ys730</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] EPI - MR 2 coverage (%)</v>
+        <v>[CONFIG] EPI - IPV stock coverage time</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>MR 2 coverage (%)</v>
+        <v>IPV stock coverage time</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>EPI_MR_2_COV</v>
+        <v>EPI_IPV_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E25" s="5" t="str">
         <v/>
       </c>
       <c r="F25" s="5" t="str">
-        <v>MR 2 doses given</v>
+        <v>usable stock</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>Surviving children by age 2 years</v>
+        <v>consumed stock</v>
       </c>
       <c r="H25" s="5" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>oSMOERRFEWN</v>
+        <v>GlSVlBnFrX9</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] EPI - MR 2 doses given </v>
+        <v>[CONFIG] EPI - Sdilution 2ml stock used</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v xml:space="preserve">MR 2 given </v>
+        <v>Sdilution 2ml used</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>EPI_MR_2_GIVEN</v>
+        <v>EPI_SDILUTION_2ML_USED</v>
       </c>
       <c r="E26" s="4" t="str">
         <v/>
       </c>
       <c r="F26" s="4" t="str">
-        <v>MR 2 doses given (number)</v>
+        <v>Sdilution 2ml used</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -1525,65 +1533,65 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>t5ssKnZSw6h</v>
+        <v>gxWF3Vp5vDR</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] EPI - MR closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - TT stock used</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>MR CV wastage (%)</v>
+        <v>TT used</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>EPI_MR_CV_WASTE</v>
+        <v>EPI_TT_USED</v>
       </c>
       <c r="E27" s="5" t="str">
         <v/>
       </c>
       <c r="F27" s="5" t="str">
-        <v>MR doses wasted (closed vial)</v>
+        <v>TT doses used</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>MR doses used</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J27" s="5" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>vDcozAkwduM</v>
+        <v>ha7FrVzCdP7</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] EPI - MR open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - RV 2 coverage (%)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>MR OV wastage (%)</v>
+        <v>RV 2 coverage (%)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>EPI_MR_OV_WASTE</v>
+        <v>EPI_RV_2_COV</v>
       </c>
       <c r="E28" s="4" t="str">
         <v/>
       </c>
       <c r="F28" s="4" t="str">
-        <v>MR doses used - administered</v>
+        <v>RV 2 doses given &lt; 1 year</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>MR doses used</v>
+        <v>Population &lt; 1 year</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>Percentage</v>
@@ -1592,129 +1600,129 @@
         <v>2019-06-29</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>k17O3iXpgiy</v>
+        <v>IDEEazwSA8h</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>[CONFIG] EPI - OPV 3 coverage (%)</v>
+        <v>[CONFIG] EPI - TT stock coverage time</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>OPV 3 coverage (%)</v>
+        <v>TT stock coverage time</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>EPI_OPV_3_COV</v>
+        <v>EPI_TT_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E29" s="5" t="str">
         <v/>
       </c>
       <c r="F29" s="5" t="str">
-        <v>OPV 3 doses given &lt; 1 year</v>
+        <v>usable stock</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>consumed stock</v>
       </c>
       <c r="H29" s="5" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J29" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>e6PGK5aJ7Dn</v>
+        <v>IfntclPYBRP</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] EPI - OPV closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - OPV stock closing balance</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>OPV CV wastage rate (%)</v>
+        <v>OPV closing balance</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>EPI_OPV_CV_WASTE</v>
+        <v>EPI_OPV_CBAL</v>
       </c>
       <c r="E30" s="4" t="str">
         <v/>
       </c>
       <c r="F30" s="4" t="str">
-        <v>OPV doses wasted (closed vial)</v>
+        <v>OPV doses closing balance</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>OPV doses used</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Omgzxz6whp4</v>
+        <v>iO3ci85klhs</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] EPI - OPV open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - DPT-HepB-HIB stock discrepancy rate (%)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>OPV OV wastage (%)</v>
+        <v>DPT-HepB-HIB discrepancy rate (%)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>EPI_OPV_OV_WASTE</v>
+        <v>EPI_DPT_HEPB_HIB_DRATE</v>
       </c>
       <c r="E31" s="5" t="str">
         <v/>
       </c>
       <c r="F31" s="5" t="str">
-        <v>OPV doses used - administered</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>OPV doses used</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H31" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>pthWAsurETT</v>
+        <v>IxeSYS0sHCa</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] EPI - Outreach immunization sessions conducted (%)</v>
+        <v>[CONFIG] EPI - AEFI suspected - serious</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Outreach sessions conducted (%)</v>
+        <v>AEFI serious</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>EPI_OUTREACH</v>
+        <v>EPI_AEFI_SUSP_SER</v>
       </c>
       <c r="E32" s="4" t="str">
         <v/>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Outreach immunisation sessions held</v>
+        <v>AEFI suspected - serious</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>Outreach immunisation sessions planned</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
         <v>2019-06-29</v>
@@ -1725,95 +1733,95 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>S0IzYPGQLnN</v>
+        <v>J5sAw5dEWAG</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] EPI - PCV 3 coverage (%)</v>
+        <v>[CONFIG] EPI - IPV stockout days</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>PCV 3 coverage (%)</v>
+        <v>IPV stockout days</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>EPI_PCV_3_COV</v>
+        <v>EPI_IPV_OSDAYS</v>
       </c>
       <c r="E33" s="5" t="str">
         <v/>
       </c>
       <c r="F33" s="5" t="str">
-        <v>PCV 3 doses given &lt; 1 year</v>
+        <v>IPV stockout days</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J33" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>vBWDj9pbnFM</v>
+        <v>J6tGDapUinz</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] EPI - PCV closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - DPT-HepB-HIB stock coverage time</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>PCV CV wastage (%)</v>
+        <v>DPT-HepB-HIB stock coverage time</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>EPI_PCV_CV_WASTE</v>
+        <v>EPI_DPTHEPBHIB_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E34" s="4" t="str">
         <v/>
       </c>
       <c r="F34" s="4" t="str">
-        <v>PCV doses wasted (close vial)</v>
+        <v>usable stock</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>PCV doses used</v>
+        <v>consumed stock</v>
       </c>
       <c r="H34" s="4" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J34" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>rXBgEba0pPO</v>
+        <v>jfVvmRI0poZ</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] EPI - PCV open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - TT closed vial wastage rate (%)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>PCV OP wastage (%)</v>
+        <v>TT CV wastage (%)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>EPI_PCV_OP_WASTE</v>
+        <v>EPI_TT_CV_WASTE</v>
       </c>
       <c r="E35" s="5" t="str">
         <v/>
       </c>
       <c r="F35" s="5" t="str">
-        <v>PCV doses used - administered</v>
+        <v>TT doses wasted</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>PCV doses used</v>
+        <v>TT doses used</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
@@ -1821,89 +1829,89 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>bbKPLVqQUt0</v>
+        <v>jWqWmmMtJWg</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] EPI - Reporting completeness (%)</v>
+        <v>[CONFIG] EPI - OPV stock used</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>EPI reporting completeness (%)</v>
+        <v>OPV used</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>EPI_REP_COMP_PERC</v>
+        <v>EPI_OPV_USED</v>
       </c>
       <c r="E36" s="4" t="str">
         <v/>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Immunisation reports received</v>
+        <v>OPV doses used</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Immunisation reports expected</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>ha7FrVzCdP7</v>
+        <v>jYl60HFDTIz</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] EPI - RV 2 coverage (%)</v>
+        <v>[CONFIG] EPI - BCG stock discrepancy rate (%)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>RV 2 coverage (%)</v>
+        <v>BCG discrepancy rate (%)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>EPI_RV_2_COV</v>
+        <v>EPI_BCG_DRATE</v>
       </c>
       <c r="E37" s="5" t="str">
         <v/>
       </c>
       <c r="F37" s="5" t="str">
-        <v>RV 2 doses given &lt; 1 year</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>Population &lt; 1 year</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H37" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>btEs5IrKxJ0</v>
+        <v>k17O3iXpgiy</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] EPI - RV closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - OPV 3 coverage (%)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>RV CV wastage (%)</v>
+        <v>OPV 3 coverage (%)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>EPI_RV_CV_WASTE</v>
+        <v>EPI_OPV_3_COV</v>
       </c>
       <c r="E38" s="4" t="str">
         <v/>
       </c>
       <c r="F38" s="4" t="str">
-        <v>RV doses wasted (close vial)</v>
+        <v>OPV 3 doses given &lt; 1 year</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>RV doses used</v>
+        <v>Population &lt; 1 year</v>
       </c>
       <c r="H38" s="4" t="str">
         <v>Percentage</v>
@@ -1912,36 +1920,36 @@
         <v>2019-06-29</v>
       </c>
       <c r="J38" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>UWwsHxAZP4y</v>
+        <v>KazkDYBpvWK</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>[CONFIG] EPI - RV open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - TT open vial wastage rate (%)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>RV OV wastage (%)</v>
+        <v>TT OV wastage (%)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>EPI_RV_OV_WASTE</v>
+        <v>EPI_TT_OV_WASTE</v>
       </c>
       <c r="E39" s="5" t="str">
         <v/>
       </c>
       <c r="F39" s="5" t="str">
-        <v>RV doses used - administered</v>
+        <v>TT doses used - administered</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>RV doses used</v>
+        <v>TT doses used</v>
       </c>
       <c r="H39" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
@@ -1949,118 +1957,118 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>jfVvmRI0poZ</v>
+        <v>KQzC6FyH4EC</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>[CONFIG] EPI - TT closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - ADS 0.5 ml stock coverage time</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>TT CV wastage (%)</v>
+        <v>ADS 0.5 ml stock coverage time</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>EPI_TT_CV_WASTE</v>
+        <v>EPI_ADS0.5_STOCK_COVERAGE_TIME</v>
       </c>
       <c r="E40" s="4" t="str">
         <v/>
       </c>
       <c r="F40" s="4" t="str">
-        <v>TT doses wasted</v>
+        <v>usable stock</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>TT doses used</v>
+        <v>consumed stock</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-14</v>
       </c>
       <c r="J40" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>KazkDYBpvWK</v>
+        <v>kR1GDcosLpn</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>[CONFIG] EPI - TT open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - DPT-HepB-HIB stock used</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>TT OV wastage (%)</v>
+        <v>DPT-HepB-HIB used</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>EPI_TT_OV_WASTE</v>
+        <v>EPI_DPT_HEPB_HIB_USED</v>
       </c>
       <c r="E41" s="5" t="str">
         <v/>
       </c>
       <c r="F41" s="5" t="str">
-        <v>TT doses used - administered</v>
+        <v>DPT-HepB-HIB doses used</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>TT doses used</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J41" s="5" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Nyumtmxj1RB</v>
+        <v>l5NxXNKkcpD</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>[CONFIG] EPI - Yellow fever closed vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - MR 1 doses given</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>YF CV wastage (%)</v>
+        <v>MR 1 given</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>EPI_YF_CV_WASTE</v>
+        <v>EPI_MR_1_GIVEN</v>
       </c>
       <c r="E42" s="4" t="str">
         <v/>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Yellow fever doses wasted (closed vial)</v>
+        <v>MR 1 doses given</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>Yellow fever doses used</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
         <v>2019-06-29</v>
       </c>
       <c r="J42" s="4" t="str">
-        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+        <v>jWbf0RIUhji</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>WSQxTuCGILM</v>
+        <v>lkpoPvRswsF</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>[CONFIG] EPI - Yellow fever coverage (%)</v>
+        <v>[CONFIG] EPI - DPT-HepB-Hib 3 coverage (%)</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>YF coverage (%)</v>
+        <v>DPT3 coverage (%)</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>EPI_YF_COV</v>
+        <v>EPI_DPT3_COV</v>
       </c>
       <c r="E43" s="5" t="str">
         <v/>
       </c>
       <c r="F43" s="5" t="str">
-        <v>YF doses given &lt; 1 year</v>
+        <v>DPT-HepB-Hib 3 doses given &lt; 1 year</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>Population &lt; 1 year</v>
@@ -2077,66 +2085,2082 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>QJmlKfgOnEx</v>
+        <v>LMvq7gIewIm</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>[CONFIG] EPI - Yellow fever doses given</v>
+        <v>[CONFIG] EPI - PCV stock discrepancy rate (%)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>YF given</v>
+        <v>PCV discrepancy rate (%)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>EPI_YF_GIVEN</v>
+        <v>EPI_PCV_DRATE</v>
       </c>
       <c r="E44" s="4" t="str">
         <v/>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Yellow fever doses given</v>
+        <v>Stock on hand - Closing balance</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>1</v>
+        <v>Stock on hand</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-12</v>
       </c>
       <c r="J44" s="4" t="str">
-        <v>jWbf0RIUhji</v>
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>aGVW4AeTjUQ</v>
+        <v>lSHy2WUMtjn</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>[CONFIG] EPI - Yellow fever open vial wastage rate (%)</v>
+        <v>[CONFIG] EPI - DPT-HepB-HIB stockout days</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>YF OV wastage (%)</v>
+        <v>DPT-HepB-HIB stockout days</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>EPI_YF_OV_WASTE</v>
+        <v>EPI_DPT-HEPB-HIB_OSDAYS</v>
       </c>
       <c r="E45" s="5" t="str">
         <v/>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Yellow fever doses used - administered</v>
+        <v>DPT-HepB-HIB stockout days</v>
       </c>
       <c r="G45" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>mtxbEguOLpv</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 5ml stock closing balance</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>Sdilution 5ml closing balance</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>EPI_SDILUTION_5ML_CBAL</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v>Sdilution 5ml closing balance</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>mwph5D00oxH</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-HIB 3 doses given</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v>DPT-HepB-HIB 3 given</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>EPI_DPT_HEB_HIB3_GIVEN</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F47" s="5" t="str">
+        <v>DPT-HepB-HIB 3 doses given</v>
+      </c>
+      <c r="G47" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v>NvmJHEeOFUO</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 2ml stock discrepancy rate (%)</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>Sdilution 2ml discrepancy rate (%)</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>EPI_SDILUTION_2ML_DRATE</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J48" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v>Nyumtmxj1RB</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>[CONFIG] EPI - Yellow fever closed vial wastage rate (%)</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v>YF CV wastage (%)</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>EPI_YF_CV_WASTE</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v>Yellow fever doses wasted (closed vial)</v>
+      </c>
+      <c r="G49" s="5" t="str">
         <v>Yellow fever doses used</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H49" s="5" t="str">
         <v>Percentage</v>
       </c>
-      <c r="I45" s="5" t="str">
+      <c r="I49" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>o16KNWYFlEp</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 5ml stock coverage time</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>Sdilution 5ml stock coverage time</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>EPI_SDILUTION5_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>odh6ieEDRpa</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>[CONFIG] EPI - Rota stock coverage time</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>Rota stock coverage time</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>EPI_ROTA_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>oJ2O5gxGMki</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 5ml stockout days</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>Sdilution 5ml stockout days</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>EPI_SDILUT5ML_OSDAYS</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>Sdilution 5ml stockout days</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>Omgzxz6whp4</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>[CONFIG] EPI - OPV open vial wastage rate (%)</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>OPV OV wastage (%)</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>EPI_OPV_OV_WASTE</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>OPV doses used - administered</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v>OPV doses used</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>oNL11Suz5ip</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>[CONFIG] EPI - PCV stock closing balance</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>PCV closing balance</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>EPI_PCV_CBAL</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>PCV doses closing balance</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>oSMOERRFEWN</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] EPI - MR 2 doses given </v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v xml:space="preserve">MR 2 given </v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>EPI_MR_2_GIVEN</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>MR 2 doses given (number)</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I55" s="5" t="str">
         <v>2019-06-29</v>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="J55" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>P2uQt7s94o2</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>[CONFIG] EPI - MR stock closing balance</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>MR closing balance</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>EPI_MR_CBAL</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>MR doses closing balance</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>pthWAsurETT</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>[CONFIG] EPI - Outreach immunization sessions conducted (%)</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>Outreach sessions conducted (%)</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>EPI_OUTREACH</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F57" s="5" t="str">
+        <v>Outreach immunization sessions held</v>
+      </c>
+      <c r="G57" s="5" t="str">
+        <v>Outreach immunization sessions planned</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v>QJmlKfgOnEx</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>[CONFIG] EPI - Yellow fever doses given</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>YF given</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>EPI_YF_GIVEN</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v>Yellow fever doses given</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>qLpl4igiQWk</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-Hib 1 coverage (%)</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>DPT1 coverage (%)</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>EPI_DPT1_COV</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v>DPT-HepB-Hib 1 doses given &lt; 1 year</v>
+      </c>
+      <c r="G59" s="5" t="str">
+        <v>Population &lt; 1 year</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>qsxSJnGRkr5</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>[CONFIG] EPI - YF stock coverage time</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>YF stock coverage time</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>EPI_YF_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H60" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J60" s="4" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>qtFNNLWxIHI</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>[CONFIG] EPI - MR 2 coverage (%)</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>MR 2 coverage (%)</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>EPI_MR_2_COV</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>MR 2 doses given</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <v>Surviving children by age 2 years</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>Qw9Iiqs0KQU</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>[CONFIG] EPI - BCG closed vial wastage rate (%)</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>BCG CV wastage (%)</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>EPI_BCG_CV_WASTE</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>BCG doses wasted (closed vial)</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <v>BCG doses used</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J62" s="4" t="str">
         <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>QxShpQdLuAt</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>[CONFIG] EPI - MR 1 coverage (%)</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>MR 1 coverage (%)</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>EPI_MR_1_COV</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>MR 1 doses given (&lt; 1 year)</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <v>Population &lt; 1 year</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>r2yoBEl6ZFx</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>[CONFIG] EPI - PCV stockout days</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>PCV stockout days</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>EPI_PCV_OSDAYS</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>PCV stockout days</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J64" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>r83OEpG195S</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>[CONFIG] EPI - ADS 0.5 ml stockout days</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>ADS 0.5 ml stockout days</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>EPI_ADS_0.5ML_OSDAYS</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v>ADS 0.5 ml stockout days</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>R8Qz1AOIv1E</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-HIB stock closing balance</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>DPT-HepB-HIB closing balance</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>EPI_DPT_HEPB_HIB_CBAL</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>DPT-HepB-HIB doses closing balance</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>rXBgEba0pPO</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>[CONFIG] EPI - PCV open vial wastage rate (%)</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>PCV OP wastage (%)</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>EPI_PCV_OP_WASTE</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>PCV doses used - administered</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <v>PCV doses used</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>S0IzYPGQLnN</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>[CONFIG] EPI - PCV 3 coverage (%)</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>PCV 3 coverage (%)</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>EPI_PCV_3_COV</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>PCV 3 doses given &lt; 1 year</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <v>Population &lt; 1 year</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>S7vxLF7zYb3</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>[CONFIG] EPI - BCG coverage (%)</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>BCG coverage (%)</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>EPI_BCG_COV</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>BCG doses given &lt; 1 year</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <v>Live births</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>SAj4RFJwA9T</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>[CONFIG] EPI - Yellow fever stock used</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>Yellow fever used</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>EPI_YF_USED</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>Yellow fever doses used</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>sAtIx98Tura</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>[CONFIG] EPI - TT stockout days</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v>TT stockout days</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v>EPI_TT_OSDAYS</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>TT stockout days</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>sgK3IgnVRCS</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>[CONFIG] EPI - AEFI suspected - non-serious</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>AEFI suspected - non-serious</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>EPI_AEFI_SUSP_NONSER</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>AEFI suspected - non-serious</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>sNqQPvRROBm</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>[CONFIG] EPI - OPV stockout days</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>OPV stockout days</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v>EPI_OPV_OSDAYS</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>OPV stockout days</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>sqZSR3JeGrd</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>[CONFIG] EPI - BCG stockout days</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>BCG stockout days</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v>EPI_BCG_OSDAYS</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v>BCG stockout days</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>T5lKtbEOnMK</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>[CONFIG] EPI - TT stock closing balance</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v>TT closing balance</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v>EPI_TT_CBAL</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v>TT doses closing balance</v>
+      </c>
+      <c r="G75" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>t5ssKnZSw6h</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>[CONFIG] EPI - MR closed vial wastage rate (%)</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>MR CV wastage (%)</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>EPI_MR_CV_WASTE</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v>MR doses wasted (closed vial)</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <v>MR doses used</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>tINB5OQkk5F</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>[CONFIG] EPI - OPV stock discrepancy rate (%)</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v>OPV discrepancy rate (%)</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>EPI_OPV_DRATE</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>tWxEH9BsU9L</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 2ml stock closing balance</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Sdilution 2ml closing balance</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>EPI_SDILUTION_2ML_CBAL</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>Sdilution 2ml closing balance</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>u3rhC9VmtR9</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>[CONFIG] EPI - MR stock used</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v>MR used</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>EPI_MR_USED</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v>MR doses used</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>U4xKa4cFDvK</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>[CONFIG] EPI - MR stock coverage time</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>MR stock coverage time</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>EPI_MR_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>u8tv9fJOx10</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>[CONFIG] EPI - ADS 0.5 ml stock closing balance</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v>ADS 0.5 ml closing balance</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>EPI_ADS_0.5_CBAL</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v>ADS 0.5 ml closing balance</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>uCirssmEf8d</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 2ml stockout days</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Sdilution 2ml stockout days</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>EPI_SDILUT2ML_OSDAYS</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>Sdilution 2ml stockout days</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J82" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>UjQPNW1DZOA</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-Hib open vial wastage rate (%)</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v>DPT-HepB-Hib OV wastage (%)</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v>EPI_DPT_HEPB_HIB_OV_WASTE</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v>DPT-HepB-Hib doses used - adminstered</v>
+      </c>
+      <c r="G83" s="5" t="str">
+        <v>DPT-HepB-HIB doses used</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>uMXIt7WMgrZ</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>[CONFIG] EPI - PCV stock coverage time</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>PCV stock coverage time</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>EPI_PCV_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J84" s="4" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>UWwsHxAZP4y</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>[CONFIG] EPI - RV open vial wastage rate (%)</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v>RV OV wastage (%)</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v>EPI_RV_OV_WASTE</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v>RV doses used - administered</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>RV doses used</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>V3yTzoxrfVg</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-Hib closed vial wastage rate (%)</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>DPT-HepB-Hib CV wastage (%)</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>EPI_DPT_HEPB_HIB_CV_WASTE</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>DPT doses wasted (closed vial)</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>DPT-HepB-Hib doses used</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>vBWDj9pbnFM</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>[CONFIG] EPI - PCV closed vial wastage rate (%)</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v>PCV CV wastage (%)</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v>EPI_PCV_CV_WASTE</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v>PCV doses wasted (close vial)</v>
+      </c>
+      <c r="G87" s="5" t="str">
+        <v>PCV doses used</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>vDcozAkwduM</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>[CONFIG] EPI - MR open vial wastage rate (%)</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>MR OV wastage (%)</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>EPI_MR_OV_WASTE</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v>MR doses used - administered</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <v>MR doses used</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J88" s="4" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>Vdel6fZvDpn</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>[CONFIG] EPI - IPV stock used</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v>IPV used</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v>EPI_IPV_USED</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v>IPV doses used</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>Vkr6WbAIudI</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>[CONFIG] EPI - Cold chain high temperature alarms</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>High temperature alarms</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>EPI_ALRMTEMP_HIGH</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>Cold chain high temperature alarms</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J90" s="4" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>weRBZpcznSB</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>[CONFIG] EPI - MR stock discrepancy rate (%)</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v>MR discrepancy rate (%)</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>EPI_MR_DRATE</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G91" s="5" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>wfHjAvS3FFs</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>[CONFIG] EPI - ADS 0.5 ml stock used</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>ADS 0.5 ml used</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>EPI_ADS_0.5_USED</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>ADS 0.5 ml used</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J92" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>wRvkMjx6jzu</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>[CONFIG] EPI - Cold chain refrigerator functional</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v>Cold chain refrigerator functional</v>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>EPI_CC_REFR_OK</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v>Cold chain refrigerator functional</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>WSI3lSrIbrh</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>[CONFIG] EPI - IPV closed vial wastage rate (%)</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v>IPV CV wastage rate (%)</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v>EPI_IPV CV_WASTE</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F94" s="4" t="str">
+        <v>IPV doses wasted (closed vial)</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <v>IPV doses used</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J94" s="4" t="str">
+        <v>jWbf0RIUhji, zcQRGoQMQeC</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>WSQxTuCGILM</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>[CONFIG] EPI - Yellow fever coverage (%)</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <v>YF coverage (%)</v>
+      </c>
+      <c r="D95" s="5" t="str">
+        <v>EPI_YF_COV</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F95" s="5" t="str">
+        <v>YF doses given &lt; 1 year</v>
+      </c>
+      <c r="G95" s="5" t="str">
+        <v>Population &lt; 1 year</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <v>jWbf0RIUhji, Us7U5nyds0r</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>WUtrdRBBOZr</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>[CONFIG] EPI - Rota stock closing balance</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Rota closing balance</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v>EPI_ROTA_CBAL</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v>Rota doses closing balance</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>XfS8TfmgnHX</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>[CONFIG] EPI - Yellow fever stockout days</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <v>Yellow fever stockout days</v>
+      </c>
+      <c r="D97" s="5" t="str">
+        <v>EPI_YF_OSDAYS</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F97" s="5" t="str">
+        <v>Yellow fever stockout days</v>
+      </c>
+      <c r="G97" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>xjXIthNA13t</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 5ml stock used</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>Sdilution 5ml used</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v>EPI_SDILUTION_5ML_USED</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v>Sdilution 5ml used</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>xss0jcVaZrY</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>[CONFIG] EPI - ADS 0.5 ml stock discrepancy rate (%)</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <v>ADS 0.5 ml discrepancy rate (%)</v>
+      </c>
+      <c r="D99" s="5" t="str">
+        <v>EPI_ADS_0.5_DRATE</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F99" s="5" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G99" s="5" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>Y1pE9Csn5WE</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>[CONFIG] EPI - BCG stock closing balance</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>BCG closing balance</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v>EPI_BCG_CBAL</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v>BCG doses closing balance</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>y84dl2tMvyn</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v>[CONFIG] EPI - DPT-HepB-HIB 1 doses given</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <v>DPT-HepB-HIB 1 given</v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <v>EPI_DPT_HEPB_HIB1_GIVEN</v>
+      </c>
+      <c r="E101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F101" s="5" t="str">
+        <v>DPT-HepB-HIB 1 doses given</v>
+      </c>
+      <c r="G101" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>yhr0ZrdlTAw</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>[CONFIG] EPI - Sdilution 2ml stock coverage time</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v>Sdilution 2ml stock coverage time</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v>EPI_SDILUTION2_STOCK_COVERAGE_TIME</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <v>IratxVbStzY</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>yjCrMc4F2Rj</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>[CONFIG] EPI - Safety boxes stock discrepancy rate (%)</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <v>Safety boxes discrepancy rate (%)</v>
+      </c>
+      <c r="D103" s="5" t="str">
+        <v>EPI_SAFEBOX_DRATE</v>
+      </c>
+      <c r="E103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F103" s="5" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G103" s="5" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>yPJNKeZdkk6</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>[CONFIG] EPI - PCV stock used</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v>PCV used</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <v>EPI_PCV_USED</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v>PCV doses used</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="str">
+        <v>zD0EJozbl4s</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <v>[CONFIG] EPI - Rota stock discrepancy rate (%)</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <v>Rota discrepancy rate (%)</v>
+      </c>
+      <c r="D105" s="5" t="str">
+        <v>EPI_ROTA_DRATE</v>
+      </c>
+      <c r="E105" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F105" s="5" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G105" s="5" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H105" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I105" s="5" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J105" s="5" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="str">
+        <v>ZGcl8P9mxp0</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>[CONFIG] EPI - Yellow fever stock closing balance</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <v>Yellow fever closing balance</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <v>EPI_YF_CBAL</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F106" s="4" t="str">
+        <v>Yellow fever doses closing balance</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="str">
+        <v>zpvCdtk2srW</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <v>[CONFIG] EPI - Cold chain low temperature alarms</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <v>Low temperature alarms</v>
+      </c>
+      <c r="D107" s="5" t="str">
+        <v>EPI_ALRMTEMP_LOW</v>
+      </c>
+      <c r="E107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F107" s="5" t="str">
+        <v>Cold chain low temperature alarms</v>
+      </c>
+      <c r="G107" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="J107" s="5" t="str">
+        <v>jWbf0RIUhji</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
+        <v>ZQRy5MWdas2</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>[CONFIG] EPI - ADS 0.05 ml stock discrepancy rate (%)</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v>ADS 0.05 ml discrepancy rate (%)</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v>EPI _ADS_0.05_DRATE</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F108" s="4" t="str">
+        <v>Stock on hand - Closing balance</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>Stock on hand</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <v>2021-06-12</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <v>IratxVbStzY, jWbf0RIUhji</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +4169,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2172,30 +4196,44 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>kHy61PbChXr</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="B3" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>hmSnCXmLYwt</v>
+        <v>k4RGC3sMTzO</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>kHy61PbChXr</v>
       </c>
     </row>
   </sheetData>
@@ -2204,12 +4242,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2227,24 +4265,35 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Immunisation</v>
+        <v>Immunization stock</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-23</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Immunisation maps</v>
+        <v>Immunization maps</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-11</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Immunization</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>jEZlIePnBUV</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +4302,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2288,742 +4337,1822 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v/>
+        <v>duCQjAdmAAf</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>TEXT</v>
+        <v>LINE</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">EPI - Open vials wastage </v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>hLsNC0X7BOL</v>
+        <v>DAbp548NKTq</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>Ld7Nktzl86S</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>EPI - Stock status SDilution 2ml</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>cM9Y23FjteV</v>
+        <v>z0ozCDFPRuu</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v/>
+        <v>af68oo9jM1L</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEXT</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>EPI - Stock status SDilution 5ml</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>kpI0HddAFpk</v>
+        <v>BOoOjOLVArc</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>XOeWGctxQFW</v>
+        <v>TFozd02axNR</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Map</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>EPI - BCG coverage by district - last month</v>
+        <v>EPI - Stock status PCV</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>b6ZMC5xDJcj</v>
+        <v>VzsRehjftHM</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>q2zASvnuahg</v>
+        <v>fB47YkpzlNK</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Map</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>EPI - DPT-HepB-Hib 3 coverage by district - last month</v>
+        <v>EPI - Stock status Rota</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>jlSdljB16dI</v>
+        <v>o0HEMSYxtZO</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>a6HFpxvJnWJ</v>
+        <v>q6Uor4EabRe</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Map</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>EPI - MR1 coverage by district - last month</v>
+        <v>EPI - Stock status TT</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>hroNOj746dy</v>
+        <v>ne5JncaIS3N</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>DyHc8Vg0t2U</v>
+        <v>Suue8oRafO8</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>EPI - DPT-HepB-Hib 1 and 3 coverage by orgunit - last year</v>
+        <v>EPI - Stock status YF</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>ImaPyVMrGGh</v>
+        <v>WriDZYg8MZ2</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>jQhhATaI5Td</v>
+        <v>bhpIwEmpDhE</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>EPI - Tracer vaccine coverages - last 5 years</v>
+        <v>EPI - Stock status OPV</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>OMy6jq4euDA</v>
+        <v>SCPFEYOUXsI</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>QaVSaPUNI95</v>
+        <v>gM0wF4ZsiyW</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>EPI - Tracer vaccines administered - this and last 5 years</v>
+        <v>EPI - Stock status MR</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>BA698ry5zCt</v>
+        <v>VsTzaVhBwt9</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>uZXaVncjurT</v>
+        <v>Lb7SJMVnDRB</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>EPI - Tracer vaccines administered - last 12 months</v>
+        <v>EPI - Stock status IPV</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>PYtPqOSI5Mu</v>
+        <v>YvfweRjsBLS</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>dwGHGSJ6YAw</v>
+        <v>B6gQ66gi226</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>EPI - Dropout rates - this and last 5 years</v>
+        <v>EPI - Stock status DPT-HepB-HIB</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>uqG68xApcbT</v>
+        <v>W4N1p6BbFys</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>FZPo9EJkj5O</v>
+        <v>iXyUDRIPR0a</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>EPI - Dropout rate - this and last 5 years</v>
+        <v>EPI - Stock status ADS 0.5 ml</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>vJoeCDRzNPb</v>
+        <v>AlLpBVrvZA1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>rV55DUhURjt</v>
+        <v>dWukcmp6rwx</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+        <v>EPI - Stock status BCG</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>CqwJSG2RhKw</v>
+        <v>XRr1OWJH1nF</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>LczTRozeKNQ</v>
+        <v/>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+        <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v>MMv1L0wcxf2</v>
+        <v>GsrTJyPx5hP</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>wDqBh1KI0tH</v>
+        <v>PYIEeuPmhOh</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>EPI - Open vial wastage rate by orgunit - last 12 months cumulative</v>
+        <v>EPI - Stock discrepancy</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>ZjlzAFMmOHg</v>
+        <v>QLyD865eVPT</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>ylj3w8C8CT7</v>
+        <v/>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>EPI - Closed vial wastage rate - this and last 5 years</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>UfXMq5WT4m6</v>
+        <v>UBfD3SbGFty</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>VJ7HOcPXzf3</v>
+        <v>iendDy13JD2</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>EPI - Closed vial wastage rates - last 12 months</v>
+        <v>EPI - Cold chain temperature alarms</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>czYnV7qlVwu</v>
+        <v>mxZm2sWVL5O</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Xq6DnWTIq06</v>
+        <v>SXpxvD8NELy</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>EPI - Temperature alarms - last 12 months</v>
+        <v xml:space="preserve">EPI - Closed vials wastage </v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>lDHyiH2OTy9</v>
+        <v>GOBZtxaCTD3</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>limJpQg2HRX</v>
+        <v/>
       </c>
       <c r="B20" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>EPI - Temperature alarms by orgunit - this year</v>
+        <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>IPcqRxVZ54n</v>
+        <v>ZchD0XTx4qg</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>FIOHbm9pzxs</v>
+        <v/>
       </c>
       <c r="B21" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>EPI - Functional refrigerators by orgunit - last 12 months</v>
+        <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>f5GPER5j4oJ</v>
+        <v>fEADUnh0vDi</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>V06KKMj8k8H</v>
+        <v/>
       </c>
       <c r="B22" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>EPI - AEFI cases - this and last 5 years</v>
+        <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>Nymykq38dRA</v>
+        <v>EmeVuoryx2h</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>C0aeaJZyANo</v>
+        <v/>
       </c>
       <c r="B23" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>EPI - AEFI cases by orgunit - last 12 months cumulative</v>
+        <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>EiUXoKuAEZb</v>
+        <v>Y0eadTVlXYq</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>oWk64tUP5Dk</v>
+        <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>EPI - AEFI cases - last 12 months</v>
+        <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>JQU1V989mYu</v>
+        <v>hNX1Vvt1rnA</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>wCKEkLUFg1z</v>
+        <v/>
       </c>
       <c r="B25" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>EPI - Outreach immunization sessions completion by orgunit - this and last 5 years</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>ehiOiaRNFwQ</v>
+        <v>QDB2elW9dES</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>S67Y5sWrCzb</v>
+        <v/>
       </c>
       <c r="B26" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>EPI - Completeness by orgunit - last month</v>
+        <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>zp44ALYanF4</v>
+        <v>hHb3yG2RbDP</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>kOOPbs54s4O</v>
+        <v/>
       </c>
       <c r="B27" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>EPI - Completeness - last 12 months</v>
+        <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>JE93Jvz8ju4</v>
+        <v>x1H7O8ZyrzK</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>MDVGTOH67Au</v>
+        <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>EPI - Completeness - last 5 years</v>
+        <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>bPzwrepvQXe</v>
+        <v>K1MECpL5oZy</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>2019-06-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>jEZlIePnBUV</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>g2QNZ1meLp8</v>
+        <v/>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>EPI - DPT-HepB-Hib 1-3 dropout rate by district - last year</v>
+        <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>G6Kxy6ncgUu</v>
+        <v>A1BKspZsiQH</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>f1ei4RC9IJu</v>
+        <v/>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>EPI - BCG to MR1 dropout rate by district - last year</v>
+        <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>yT7yVmho39D</v>
+        <v>dObq0t7k30k</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>zrvLiGhSRgZ</v>
+        <v/>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>EPI - MR1 to 2 dropout rate by district - last year</v>
+        <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>t9SeuIUCbDU</v>
+        <v>klgqEMSjipZ</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>XGxO1XQZzS9</v>
+        <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>EPI - BCG coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>rQtmH8NK4Gf</v>
+        <v>PAIW7mkATcV</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>lUlr9JjGwBN</v>
+        <v/>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>EPI - DPT-HepB-Hib 3 coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>DwCgAhupchk</v>
+        <v>gc0IxPPnO06</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>h2pRK9XTTaF</v>
+        <v/>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>EPI - OPV3 coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>uVwJnYfWa16</v>
+        <v>h4mtKtLVKsM</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>iFJvhvxrdxW</v>
+        <v/>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>EPI - PCV3 coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>AtM7rX4OAcd</v>
+        <v>jRH6oBVAtsT</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>iuzb1Ubh5Yq</v>
+        <v/>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>EPI - RV2 coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>PIzErK8nY5s</v>
+        <v>LMv2K7o2emE</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>StPHuEWYzIa</v>
+        <v/>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>EPI - MR2 coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>JlKnAPXbL9H</v>
+        <v>WXDylIfeSe1</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>2017-06-01</v>
+        <v>2021-06-23</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>GLBzGIEwP7g</v>
+        <v>dCvWlA6ymxT</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>uPoCxzhf1zH</v>
+        <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>EPI - YF coverage by district - last year</v>
+        <v/>
       </c>
       <c r="D38" s="4" t="str">
+        <v>favgYwkZCdK</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D39" s="5" t="str">
+        <v>NxALTcRHNK0</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D40" s="4" t="str">
+        <v>SfvbKOXO6N7</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v>DVuqI97DzCF</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>IgWPzA2P6K1</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>Tznfy3ezzvF</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>XK1FE8mwmmt</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>dOrgca2CtAI</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>JJjmpFotPMy</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>CuuwDNw3avk</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>WYaHayYp6c8</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>yruBKsWhL9S</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>FEIF5ejaXzq</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>mafAdpAcqGT</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>IzTcWNxAUUW</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>gt6EDn1ZpEi</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>S5SXrxVyJMD</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>cgq4HLuvPCB</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>dCvWlA6ymxT</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>G6Kxy6ncgUu</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>yT7yVmho39D</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>t9SeuIUCbDU</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>rQtmH8NK4Gf</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>DwCgAhupchk</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>uVwJnYfWa16</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>AtM7rX4OAcd</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>PIzErK8nY5s</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>JlKnAPXbL9H</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D65" s="5" t="str">
         <v>gwehl5IDn7f</v>
       </c>
-      <c r="E38" s="4" t="str">
-        <v>2017-06-01</v>
-      </c>
-      <c r="F38" s="4" t="str">
+      <c r="E65" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F65" s="5" t="str">
         <v>GLBzGIEwP7g</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>hLsNC0X7BOL</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>cM9Y23FjteV</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>kpI0HddAFpk</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>b6ZMC5xDJcj</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>jlSdljB16dI</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v>hroNOj746dy</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>DyHc8Vg0t2U</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>EPI - DPT-HepB-Hib 1 and 3 coverage by orgunit - last year</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>ImaPyVMrGGh</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>jQhhATaI5Td</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>EPI - Tracer vaccine coverages - last 5 years</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v>OMy6jq4euDA</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>QaVSaPUNI95</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>EPI - Tracer vaccines administered - this and last 5 years</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v>BA698ry5zCt</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>uZXaVncjurT</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v>EPI - Tracer vaccines administered - last 12 months</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v>PYtPqOSI5Mu</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>dwGHGSJ6YAw</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>EPI - Dropout rates - this and last 5 years</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>uqG68xApcbT</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>FZPo9EJkj5O</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v>EPI - Dropout rate - this and last 5 years</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>vJoeCDRzNPb</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>rV55DUhURjt</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>CqwJSG2RhKw</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>LczTRozeKNQ</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>MMv1L0wcxf2</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>wDqBh1KI0tH</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>EPI - Open vial wastage rate by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>ZjlzAFMmOHg</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>ylj3w8C8CT7</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v>EPI - Closed vial wastage rate - this and last 5 years</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>UfXMq5WT4m6</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>VJ7HOcPXzf3</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>EPI - Closed vial wastage rates - last 12 months</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>czYnV7qlVwu</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>Xq6DnWTIq06</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v>EPI - Temperature alarms - last 12 months</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v>lDHyiH2OTy9</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>limJpQg2HRX</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>STACKED_COLUMN</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>EPI - Temperature alarms by orgunit - this year</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>IPcqRxVZ54n</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>FIOHbm9pzxs</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v>EPI - Functional refrigerators by orgunit - last 12 months</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v>f5GPER5j4oJ</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>V06KKMj8k8H</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>EPI - AEFI cases - this and last 5 years</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>Nymykq38dRA</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>C0aeaJZyANo</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v>EPI - AEFI cases by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v>EiUXoKuAEZb</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>oWk64tUP5Dk</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>EPI - AEFI cases - last 12 months</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>JQU1V989mYu</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>wCKEkLUFg1z</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v>EPI - Outreach immunization sessions completion by orgunit - this and last 5 years</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v>ehiOiaRNFwQ</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>S67Y5sWrCzb</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>EPI - Completeness by orgunit - last month</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>zp44ALYanF4</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>kOOPbs54s4O</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v>EPI - Completeness - last 12 months</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>JE93Jvz8ju4</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v>jEZlIePnBUV</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>MDVGTOH67Au</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>EPI - Completeness - last 5 years</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>bPzwrepvQXe</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>jEZlIePnBUV</v>
       </c>
     </row>
   </sheetData>
@@ -3032,14 +6161,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="84.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3059,296 +6188,520 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>EPI - AEFI cases - last 12 months</v>
+        <v>EPI - Stock status SDilution 5ml</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-06-29T07:37:52.615</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>oWk64tUP5Dk</v>
+        <v>af68oo9jM1L</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>EPI - AEFI cases - this and last 5 years</v>
+        <v>EPI - Stock status DPT-HepB-HIB</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-06-29T06:59:16.548</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>V06KKMj8k8H</v>
+        <v>B6gQ66gi226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>EPI - AEFI cases by orgunit - last 12 months cumulative</v>
+        <v>EPI - Stock status OPV</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-06-02T20:47:35.658</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>C0aeaJZyANo</v>
+        <v>bhpIwEmpDhE</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>EPI - Closed vial wastage rate - this and last 5 years</v>
+        <v>EPI - AEFI cases by orgunit - last 12 months cumulative</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-06-29T06:59:13.455</v>
+        <v>2020-06-02</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>ylj3w8C8CT7</v>
+        <v>C0aeaJZyANo</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>EPI - Closed vial wastage rates - last 12 months</v>
+        <v xml:space="preserve">EPI - Open vials wastage </v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-06-29T07:37:45.593</v>
+        <v>2021-06-23</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>VJ7HOcPXzf3</v>
+        <v>duCQjAdmAAf</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>EPI - Completeness - last 12 months</v>
+        <v>EPI - Dropout rates - this and last 5 years</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2019-06-29T07:37:42.495</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>kOOPbs54s4O</v>
+        <v>dwGHGSJ6YAw</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>EPI - Completeness - last 5 years</v>
+        <v>EPI - Stock status BCG</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2019-06-29T07:37:39.390</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MDVGTOH67Au</v>
+        <v>dWukcmp6rwx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>EPI - Completeness by orgunit - last month</v>
+        <v>EPI - DPT-HepB-Hib 1 and 3 coverage by orgunit - last year</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-06-29T07:37:36.283</v>
+        <v>2020-06-02</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>S67Y5sWrCzb</v>
+        <v>DyHc8Vg0t2U</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EPI - DPT-HepB-Hib 1 and 3 coverage by orgunit - last year</v>
+        <v>EPI - Stock status Rota</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2020-06-02T20:47:35.663</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>DyHc8Vg0t2U</v>
+        <v>fB47YkpzlNK</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>EPI - Dropout rate - this and last 5 years</v>
+        <v>EPI - Functional refrigerators by orgunit - last 12 months</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2019-06-29T07:37:30.149</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>FZPo9EJkj5O</v>
+        <v>FIOHbm9pzxs</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>EPI - Dropout rates - this and last 5 years</v>
+        <v>EPI - Dropout rate - this and last 5 years</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2019-06-29T06:59:10.346</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>dwGHGSJ6YAw</v>
+        <v>FZPo9EJkj5O</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+        <v>EPI - Stock status MR</v>
       </c>
       <c r="B13" s="5" t="str">
         <v/>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2019-06-29T07:37:26.996</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>rV55DUhURjt</v>
+        <v>gM0wF4ZsiyW</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+        <v>EPI - Cold chain temperature alarms</v>
       </c>
       <c r="B14" s="4" t="str">
         <v/>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2019-06-29T06:59:07.328</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>LczTRozeKNQ</v>
+        <v>iendDy13JD2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>EPI - Functional refrigerators by orgunit - last 12 months</v>
+        <v>EPI - Stock status ADS 0.5 ml</v>
       </c>
       <c r="B15" s="5" t="str">
         <v/>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2019-06-29T07:37:23.941</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>FIOHbm9pzxs</v>
+        <v>iXyUDRIPR0a</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>EPI - Open vial wastage rate by orgunit - last 12 months cumulative</v>
+        <v>EPI - Tracer vaccine coverages - last 5 years</v>
       </c>
       <c r="B16" s="4" t="str">
         <v/>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2019-06-29T06:59:04.280</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>wDqBh1KI0tH</v>
+        <v>jQhhATaI5Td</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>EPI - Outreach immunization sessions completion by orgunit - this and last 5 years</v>
+        <v>EPI - Completeness - last 12 months</v>
       </c>
       <c r="B17" s="5" t="str">
         <v/>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2020-05-25T12:25:16.937</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>wCKEkLUFg1z</v>
+        <v>kOOPbs54s4O</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>EPI - Temperature alarms - last 12 months</v>
+        <v>EPI - Stock status IPV</v>
       </c>
       <c r="B18" s="4" t="str">
         <v/>
       </c>
       <c r="C18" s="4" t="str">
-        <v>2019-06-29T07:37:20.853</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>Xq6DnWTIq06</v>
+        <v>Lb7SJMVnDRB</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EPI - Temperature alarms by orgunit - this year</v>
+        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
       </c>
       <c r="B19" s="5" t="str">
         <v/>
       </c>
       <c r="C19" s="5" t="str">
-        <v>2020-06-02T20:47:35.666</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>limJpQg2HRX</v>
+        <v>LczTRozeKNQ</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EPI - Tracer vaccine coverages - last 5 years</v>
+        <v>EPI - Stock status SDilution 2ml</v>
       </c>
       <c r="B20" s="4" t="str">
         <v/>
       </c>
       <c r="C20" s="4" t="str">
-        <v>2019-06-29T07:37:14.679</v>
+        <v>2021-06-14</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>jQhhATaI5Td</v>
+        <v>Ld7Nktzl86S</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>EPI - Tracer vaccines administered - last 12 months</v>
+        <v>EPI - Temperature alarms by orgunit - this year</v>
       </c>
       <c r="B21" s="5" t="str">
         <v/>
       </c>
       <c r="C21" s="5" t="str">
-        <v>2019-06-29T07:37:11.499</v>
+        <v>2020-06-02</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>uZXaVncjurT</v>
+        <v>limJpQg2HRX</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
+        <v>EPI - Completeness - last 5 years</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>MDVGTOH67Au</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>EPI - AEFI cases - last 12 months</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>oWk64tUP5Dk</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>EPI - Stock discrepancy</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>PYIEeuPmhOh</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>EPI - Stock status TT</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C25" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v>q6Uor4EabRe</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
         <v>EPI - Tracer vaccines administered - this and last 5 years</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C22" s="4" t="str">
-        <v>2019-06-29T07:37:08.420</v>
-      </c>
-      <c r="D22" s="4" t="str">
+      <c r="B26" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D26" s="4" t="str">
         <v>QaVSaPUNI95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>EPI - Dropout rates by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <v>rV55DUhURjt</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="str">
+        <v>EPI - Completeness by orgunit - last month</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v>S67Y5sWrCzb</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="str">
+        <v>EPI - Stock status YF</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C29" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <v>Suue8oRafO8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <v xml:space="preserve">EPI - Closed vials wastage </v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <v>SXpxvD8NELy</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="str">
+        <v>EPI - Stock status PCV</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C31" s="5" t="str">
+        <v>2021-06-14</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <v>TFozd02axNR</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <v>EPI - Tracer vaccines administered - last 12 months</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <v>uZXaVncjurT</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="str">
+        <v>EPI - AEFI cases - this and last 5 years</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C33" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <v>V06KKMj8k8H</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v>EPI - Closed vial wastage rates - last 12 months</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>VJ7HOcPXzf3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>EPI - Outreach immunization sessions completion by orgunit - this and last 5 years</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>2020-05-25</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <v>wCKEkLUFg1z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>EPI - Open vial wastage rate by orgunit - last 12 months cumulative</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>wDqBh1KI0tH</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v>EPI - Temperature alarms - last 12 months</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <v>Xq6DnWTIq06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>EPI - Closed vial wastage rate - this and last 5 years</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>ylj3w8C8CT7</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +6710,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3384,184 +6737,534 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>EPI - BCG coverage by district - last month</v>
+        <v>EPI - MR1 coverage by district - last month</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-05-25</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>XOeWGctxQFW</v>
+        <v>a6HFpxvJnWJ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>EPI - BCG coverage by district - last year</v>
+        <v>EPI - DPRT-HepB-Hib stock coverage time by facility</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>XGxO1XQZzS9</v>
+        <v>bruYlf311ll</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>EPI - BCG to MR1 dropout rate by district - last year</v>
+        <v>EPI - BCG stock coverage time by facility</v>
       </c>
       <c r="B4" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>f1ei4RC9IJu</v>
+        <v>bT3oFqZUJpQ</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>EPI - DPT-HepB-Hib 1-3 dropout rate by district - last year</v>
+        <v>EPI - PCV stock coverage time by facility</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>g2QNZ1meLp8</v>
+        <v>ClaMCiHNLIi</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>EPI - DPT-HepB-Hib 3 coverage by district - last month</v>
+        <v>EPI - Rota stockout days by facility</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2020-05-25</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>q2zASvnuahg</v>
+        <v>dd0HZ0fjDAE</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>EPI - DPT-HepB-Hib 3 coverage by district - last year</v>
+        <v>EPI - SDilution 5ml stockout days by facility</v>
       </c>
       <c r="B7" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>lUlr9JjGwBN</v>
+        <v>DDhvdfvvDgc</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>EPI - MR1 coverage by district - last month</v>
+        <v>EPI - TT stockout days by facility</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2020-05-25</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>a6HFpxvJnWJ</v>
+        <v>ESY8MbIJajD</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>EPI - MR1 to 2 dropout rate by district - last year</v>
+        <v>EPI - BCG to MR1 dropout rate by district - last year</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>zrvLiGhSRgZ</v>
+        <v>f1ei4RC9IJu</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EPI - MR2 coverage by district - last year</v>
+        <v>EPI - DPT-HepB-Hib 1-3 dropout rate by district - last year</v>
       </c>
       <c r="B10" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>StPHuEWYzIa</v>
+        <v>g2QNZ1meLp8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>EPI - OPV3 coverage by district - last year</v>
+        <v>EPI - IPV stock coverage time by facility</v>
       </c>
       <c r="B11" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>h2pRK9XTTaF</v>
+        <v>gbEdvsYklCS</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>EPI - PCV3 coverage by district - last year</v>
+        <v>EPI - TT stock coverage time by facility</v>
       </c>
       <c r="B12" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>iFJvhvxrdxW</v>
+        <v>gROqwI0D6pe</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>EPI - RV2 coverage by district - last year</v>
+        <v>EPI - OPV3 coverage by district - last year</v>
       </c>
       <c r="B13" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>iuzb1Ubh5Yq</v>
+        <v>h2pRK9XTTaF</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>EPI - YF coverage by district - last year</v>
+        <v>EPI - ADS 0.5 ml stockout days by facility</v>
       </c>
       <c r="B14" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-22</v>
       </c>
       <c r="D14" s="4" t="str">
+        <v>HW5EpimxcDl</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>EPI - PCV3 coverage by district - last year</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <v>iFJvhvxrdxW</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>EPI - RV2 coverage by district - last year</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>iuzb1Ubh5Yq</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
+        <v>EPI - DPT-HepB-Hib stockout days by facility</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <v>LJPV6Jega10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="str">
+        <v>EPI - DPT-HepB-Hib 3 coverage by district - last year</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <v>lUlr9JjGwBN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="str">
+        <v>EPI - MR stockout days by facility</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <v>mHmCAEvnIsk</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
+        <v>EPI - ADS 0.5 ml stock coverage time by facility</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>nYxLB6ooNAx</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>EPI - PCV stockout days by facility</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <v>o904HtoiDja</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <v>EPI - MR stock coverage time by facility</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>oAxaggSjvsC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>EPI - DPT-HepB-Hib 3 coverage by district - last month</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>q2zASvnuahg</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>EPI - SDilution 2ml stockout days by facility</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>rfNuZT5NS47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>EPI - BCG stockout days by facility</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v>RThGUe9mLsl</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>EPI - DIPV stockout days by facility</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>S6rTD2RJrCA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>EPI - SDilution 2ml stock coverage time by facility</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <v>s9PGJRcxEUG</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="str">
+        <v>EPI - MR2 coverage by district - last year</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v>StPHuEWYzIa</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="str">
+        <v>EPI - OPV stockout days by facility</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <v>T2qOObqfqol</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <v>EPI - High temperature alarms distribution</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <v>tVjfEkEPD2W</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="str">
+        <v>EPI - YF stockout days by facility</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <v>ubE5UqY2QOx</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <v>EPI - Rota stock coverage time by facility</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <v>uca5XNyzdSY</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="str">
+        <v>EPI - YF coverage by district - last year</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D33" s="5" t="str">
         <v>uPoCxzhf1zH</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v>EPI - SDilution 5ml stock coverage time by facility</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>vB0nZiai3Vq</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>EPI - OPV stock coverage time by facility</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <v>wKTFr7uG78Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>EPI - BCG coverage by district - last year</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>XGxO1XQZzS9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v>EPI - BCG coverage by district - last month</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <v>XOeWGctxQFW</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>EPI - YF stock coverage time by facility</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>Yn4cPJo8QaV</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v>EPI - MR1 to 2 dropout rate by district - last year</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <v>zrvLiGhSRgZ</v>
       </c>
     </row>
   </sheetData>
@@ -3570,17 +7273,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3609,117 +7312,117 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>EPI coverage</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>s1VrkziIbq4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>Invalid</v>
       </c>
       <c r="D2" s="4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2018-01-16T15:12:51.679</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>sP4oPVfcyUM</v>
+        <v>wfbGANgbnMR</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>EPI coverage</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>s1VrkziIbq4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Highest</v>
+        <v>Overstock</v>
       </c>
       <c r="D3" s="5">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2018-01-16T15:12:51.680</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>eaY4IVBuwM1</v>
+        <v>ee8QJxth4ul</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>EPI coverage</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>s1VrkziIbq4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>High</v>
+        <v>Adequate stock</v>
       </c>
       <c r="D4" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2018-01-16T15:12:51.680</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>w5XF8CMyPWR</v>
+        <v>mmvDbIcm41d</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>EPI coverage</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>s1VrkziIbq4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Mid</v>
+        <v>Understock</v>
       </c>
       <c r="D5" s="5">
-        <v>70</v>
+        <v>0.0001</v>
       </c>
       <c r="E5" s="5">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2018-01-16T15:12:51.680</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>F8wvZmpMbVK</v>
+        <v>wAdm1fy3Fmk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>EPI coverage</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>s1VrkziIbq4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Low</v>
+        <v>Stock out</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>70</v>
+        <v>0.0001</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2018-01-16T15:12:51.680</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>lGyKnHfmwHB</v>
+        <v>fFBIEwglorN</v>
       </c>
     </row>
     <row r="7">
@@ -3739,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2018-01-16T15:14:58.415</v>
+        <v>2018-01-16</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>zOBEfagpN2O</v>
@@ -3762,7 +7465,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2018-01-16T15:14:58.416</v>
+        <v>2018-01-16</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>oux8BZKOApR</v>
@@ -3785,10 +7488,194 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2018-01-16T15:14:58.415</v>
+        <v>2018-01-16</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>GJ17LWNNkHt</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <v>IdLVcKSBYPP</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>Correct stock</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <v>bW5lmAtDMhX</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>Negative</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-10000000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <v>EcNjRnWM0Yw</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="str">
+        <v>EPI coverage</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <v>s1VrkziIbq4</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <v>2018-01-16</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <v>sP4oPVfcyUM</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="str">
+        <v>EPI coverage</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v>s1VrkziIbq4</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>Highest</v>
+      </c>
+      <c r="D14" s="4">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <v>2018-01-16</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <v>eaY4IVBuwM1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>EPI coverage</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v>s1VrkziIbq4</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>High</v>
+      </c>
+      <c r="D15" s="5">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5">
+        <v>90</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <v>2018-01-16</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <v>w5XF8CMyPWR</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>EPI coverage</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>s1VrkziIbq4</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>Mid</v>
+      </c>
+      <c r="D16" s="4">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <v>2018-01-16</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <v>F8wvZmpMbVK</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
+        <v>EPI coverage</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <v>s1VrkziIbq4</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <v>Low</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>70</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <v>2018-01-16</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <v>lGyKnHfmwHB</v>
       </c>
     </row>
   </sheetData>
